--- a/region.xlsx
+++ b/region.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\python_code\DQNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7662B9-70E7-4FD0-BDA6-F7780942668C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC74A50-0ACB-4B5C-A282-93F83CA08252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6820" yWindow="800" windowWidth="10800" windowHeight="12410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7620" yWindow="1390" windowWidth="10800" windowHeight="12410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -371,7 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+    <sheetView topLeftCell="CE1" workbookViewId="0">
       <selection activeCell="CK7" sqref="CK7"/>
     </sheetView>
   </sheetViews>
@@ -105952,4 +105953,18 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FECB47-98A3-4586-BDE7-1CE8E4A7A71C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>